--- a/data/words/v1/数词词库.xlsx
+++ b/data/words/v1/数词词库.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/rd/project/zentao/go/zd/data/words/v1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67165A4F-120E-0942-9F80-82FB7EAC6412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -372,14 +376,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,158 +391,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,198 +406,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -767,251 +434,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1032,61 +457,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1373,31 +754,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.8181818181818" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.9090909090909" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.9090909090909" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.81818181818182" style="2"/>
+    <col min="1" max="1" width="11.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1417,7 +797,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1426,7 +806,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1435,7 +815,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1444,7 +824,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1453,7 +833,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:9">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1463,7 +843,7 @@
       <c r="C7" s="4"/>
       <c r="I7"/>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:3">
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1472,7 +852,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:3">
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1481,7 +861,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:3">
+    <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1490,7 +870,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:3">
+    <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1499,7 +879,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:3">
+    <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1508,7 +888,7 @@
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:3">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -1517,7 +897,7 @@
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:3">
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1526,7 +906,7 @@
       </c>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:3">
+    <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1535,7 +915,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:3">
+    <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1544,7 +924,7 @@
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:3">
+    <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -1553,7 +933,7 @@
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:3">
+    <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -1562,7 +942,7 @@
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:3">
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -1571,7 +951,7 @@
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:3">
+    <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -1580,7 +960,7 @@
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:3">
+    <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
@@ -1589,7 +969,7 @@
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:3">
+    <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
@@ -1598,7 +978,7 @@
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:3">
+    <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
@@ -1607,7 +987,7 @@
       </c>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:3">
+    <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
@@ -1616,7 +996,7 @@
       </c>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:3">
+    <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
@@ -1625,7 +1005,7 @@
       </c>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:3">
+    <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
@@ -1634,7 +1014,7 @@
       </c>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:3">
+    <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
@@ -1643,7 +1023,7 @@
       </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:3">
+    <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
@@ -1652,7 +1032,7 @@
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:3">
+    <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
@@ -1661,7 +1041,7 @@
       </c>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:3">
+    <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
@@ -1670,7 +1050,7 @@
       </c>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:3">
+    <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
@@ -1679,7 +1059,7 @@
       </c>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:3">
+    <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
@@ -1688,7 +1068,7 @@
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:3">
+    <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -1697,7 +1077,7 @@
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:3">
+    <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -1706,7 +1086,7 @@
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:3">
+    <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
@@ -1715,7 +1095,7 @@
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:3">
+    <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
@@ -1724,7 +1104,7 @@
       </c>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:3">
+    <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
@@ -1733,7 +1113,7 @@
       </c>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:3">
+    <row r="38" spans="1:3">
       <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
@@ -1742,7 +1122,7 @@
       </c>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:3">
+    <row r="39" spans="1:3">
       <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
@@ -1751,7 +1131,7 @@
       </c>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:3">
+    <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
         <v>42</v>
       </c>
@@ -1760,7 +1140,7 @@
       </c>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:3">
+    <row r="41" spans="1:3">
       <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
@@ -1769,7 +1149,7 @@
       </c>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:3">
+    <row r="42" spans="1:3">
       <c r="A42" s="4" t="s">
         <v>44</v>
       </c>
@@ -1778,7 +1158,7 @@
       </c>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:3">
+    <row r="43" spans="1:3">
       <c r="A43" s="4" t="s">
         <v>45</v>
       </c>
@@ -1787,7 +1167,7 @@
       </c>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:3">
+    <row r="44" spans="1:3">
       <c r="A44" s="4" t="s">
         <v>46</v>
       </c>
@@ -1796,7 +1176,7 @@
       </c>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:3">
+    <row r="45" spans="1:3">
       <c r="A45" s="4" t="s">
         <v>47</v>
       </c>
@@ -1805,7 +1185,7 @@
       </c>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:3">
+    <row r="46" spans="1:3">
       <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
@@ -1814,7 +1194,7 @@
       </c>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:3">
+    <row r="47" spans="1:3">
       <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
@@ -1823,7 +1203,7 @@
       </c>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:3">
+    <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
         <v>50</v>
       </c>
@@ -1832,7 +1212,7 @@
       </c>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:3">
+    <row r="49" spans="1:3">
       <c r="A49" s="4" t="s">
         <v>51</v>
       </c>
@@ -1841,7 +1221,7 @@
       </c>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" s="2" customFormat="1" spans="1:3">
+    <row r="50" spans="1:3">
       <c r="A50" s="4" t="s">
         <v>52</v>
       </c>
@@ -1850,7 +1230,7 @@
       </c>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" s="2" customFormat="1" spans="1:3">
+    <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
         <v>53</v>
       </c>
@@ -1859,7 +1239,7 @@
       </c>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" s="2" customFormat="1" spans="1:3">
+    <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
         <v>54</v>
       </c>
@@ -1868,7 +1248,7 @@
       </c>
       <c r="C52" s="4"/>
     </row>
-    <row r="53" s="2" customFormat="1" spans="1:3">
+    <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
         <v>55</v>
       </c>
@@ -1877,7 +1257,7 @@
       </c>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" s="2" customFormat="1" spans="1:3">
+    <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
         <v>56</v>
       </c>
@@ -1886,7 +1266,7 @@
       </c>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" s="2" customFormat="1" spans="1:3">
+    <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
         <v>57</v>
       </c>
@@ -1895,7 +1275,7 @@
       </c>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" s="2" customFormat="1" spans="1:3">
+    <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
         <v>58</v>
       </c>
@@ -1904,7 +1284,7 @@
       </c>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" s="2" customFormat="1" spans="1:3">
+    <row r="57" spans="1:3">
       <c r="A57" s="4" t="s">
         <v>59</v>
       </c>
@@ -1913,7 +1293,7 @@
       </c>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" s="2" customFormat="1" spans="1:3">
+    <row r="58" spans="1:3">
       <c r="A58" s="4" t="s">
         <v>60</v>
       </c>
@@ -1922,7 +1302,7 @@
       </c>
       <c r="C58" s="4"/>
     </row>
-    <row r="59" s="2" customFormat="1" spans="1:3">
+    <row r="59" spans="1:3">
       <c r="A59" s="4" t="s">
         <v>61</v>
       </c>
@@ -1931,7 +1311,7 @@
       </c>
       <c r="C59" s="4"/>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:3">
+    <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
         <v>62</v>
       </c>
@@ -1940,7 +1320,7 @@
       </c>
       <c r="C60" s="4"/>
     </row>
-    <row r="61" s="2" customFormat="1" spans="1:3">
+    <row r="61" spans="1:3">
       <c r="A61" s="4" t="s">
         <v>63</v>
       </c>
@@ -1949,7 +1329,7 @@
       </c>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" s="2" customFormat="1" spans="1:3">
+    <row r="62" spans="1:3">
       <c r="A62" s="4" t="s">
         <v>64</v>
       </c>
@@ -1958,7 +1338,7 @@
       </c>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" s="2" customFormat="1" spans="1:3">
+    <row r="63" spans="1:3">
       <c r="A63" s="4" t="s">
         <v>65</v>
       </c>
@@ -1967,7 +1347,7 @@
       </c>
       <c r="C63" s="4"/>
     </row>
-    <row r="64" s="2" customFormat="1" spans="1:3">
+    <row r="64" spans="1:3">
       <c r="A64" s="4" t="s">
         <v>66</v>
       </c>
@@ -1976,7 +1356,7 @@
       </c>
       <c r="C64" s="4"/>
     </row>
-    <row r="65" s="2" customFormat="1" spans="1:3">
+    <row r="65" spans="1:3">
       <c r="A65" s="4" t="s">
         <v>67</v>
       </c>
@@ -1985,7 +1365,7 @@
       </c>
       <c r="C65" s="4"/>
     </row>
-    <row r="66" s="2" customFormat="1" spans="1:3">
+    <row r="66" spans="1:3">
       <c r="A66" s="4" t="s">
         <v>68</v>
       </c>
@@ -1994,7 +1374,7 @@
       </c>
       <c r="C66" s="4"/>
     </row>
-    <row r="67" s="2" customFormat="1" spans="1:3">
+    <row r="67" spans="1:3">
       <c r="A67" s="4" t="s">
         <v>69</v>
       </c>
@@ -2003,7 +1383,7 @@
       </c>
       <c r="C67" s="4"/>
     </row>
-    <row r="68" s="2" customFormat="1" spans="1:3">
+    <row r="68" spans="1:3">
       <c r="A68" s="4" t="s">
         <v>70</v>
       </c>
@@ -2012,7 +1392,7 @@
       </c>
       <c r="C68" s="4"/>
     </row>
-    <row r="69" s="2" customFormat="1" spans="1:3">
+    <row r="69" spans="1:3">
       <c r="A69" s="4" t="s">
         <v>71</v>
       </c>
@@ -2021,7 +1401,7 @@
       </c>
       <c r="C69" s="4"/>
     </row>
-    <row r="70" s="2" customFormat="1" spans="1:3">
+    <row r="70" spans="1:3">
       <c r="A70" s="4" t="s">
         <v>72</v>
       </c>
@@ -2030,7 +1410,7 @@
       </c>
       <c r="C70" s="4"/>
     </row>
-    <row r="71" s="2" customFormat="1" spans="1:3">
+    <row r="71" spans="1:3">
       <c r="A71" s="4" t="s">
         <v>73</v>
       </c>
@@ -2039,7 +1419,7 @@
       </c>
       <c r="C71" s="4"/>
     </row>
-    <row r="72" s="2" customFormat="1" spans="1:3">
+    <row r="72" spans="1:3">
       <c r="A72" s="4" t="s">
         <v>74</v>
       </c>
@@ -2048,7 +1428,7 @@
       </c>
       <c r="C72" s="4"/>
     </row>
-    <row r="73" s="2" customFormat="1" spans="1:3">
+    <row r="73" spans="1:3">
       <c r="A73" s="4" t="s">
         <v>75</v>
       </c>
@@ -2057,7 +1437,7 @@
       </c>
       <c r="C73" s="4"/>
     </row>
-    <row r="74" s="2" customFormat="1" spans="1:3">
+    <row r="74" spans="1:3">
       <c r="A74" s="4" t="s">
         <v>76</v>
       </c>
@@ -2066,7 +1446,7 @@
       </c>
       <c r="C74" s="4"/>
     </row>
-    <row r="75" s="2" customFormat="1" spans="1:3">
+    <row r="75" spans="1:3">
       <c r="A75" s="4" t="s">
         <v>77</v>
       </c>
@@ -2075,7 +1455,7 @@
       </c>
       <c r="C75" s="4"/>
     </row>
-    <row r="76" s="2" customFormat="1" spans="1:3">
+    <row r="76" spans="1:3">
       <c r="A76" s="4" t="s">
         <v>78</v>
       </c>
@@ -2084,7 +1464,7 @@
       </c>
       <c r="C76" s="4"/>
     </row>
-    <row r="77" s="2" customFormat="1" spans="1:3">
+    <row r="77" spans="1:3">
       <c r="A77" s="4" t="s">
         <v>79</v>
       </c>
@@ -2093,7 +1473,7 @@
       </c>
       <c r="C77" s="4"/>
     </row>
-    <row r="78" s="2" customFormat="1" spans="1:3">
+    <row r="78" spans="1:3">
       <c r="A78" s="4" t="s">
         <v>80</v>
       </c>
@@ -2102,7 +1482,7 @@
       </c>
       <c r="C78" s="4"/>
     </row>
-    <row r="79" s="2" customFormat="1" spans="1:3">
+    <row r="79" spans="1:3">
       <c r="A79" s="4" t="s">
         <v>81</v>
       </c>
@@ -2111,7 +1491,7 @@
       </c>
       <c r="C79" s="4"/>
     </row>
-    <row r="80" s="2" customFormat="1" spans="1:3">
+    <row r="80" spans="1:3">
       <c r="A80" s="4" t="s">
         <v>82</v>
       </c>
@@ -2120,7 +1500,7 @@
       </c>
       <c r="C80" s="4"/>
     </row>
-    <row r="81" s="2" customFormat="1" spans="1:3">
+    <row r="81" spans="1:3">
       <c r="A81" s="4" t="s">
         <v>83</v>
       </c>
@@ -2129,7 +1509,7 @@
       </c>
       <c r="C81" s="4"/>
     </row>
-    <row r="82" s="2" customFormat="1" spans="1:3">
+    <row r="82" spans="1:3">
       <c r="A82" s="4" t="s">
         <v>84</v>
       </c>
@@ -2138,7 +1518,7 @@
       </c>
       <c r="C82" s="4"/>
     </row>
-    <row r="83" s="2" customFormat="1" spans="1:3">
+    <row r="83" spans="1:3">
       <c r="A83" s="4" t="s">
         <v>85</v>
       </c>
@@ -2147,7 +1527,7 @@
       </c>
       <c r="C83" s="4"/>
     </row>
-    <row r="84" s="2" customFormat="1" spans="1:3">
+    <row r="84" spans="1:3">
       <c r="A84" s="4" t="s">
         <v>86</v>
       </c>
@@ -2156,7 +1536,7 @@
       </c>
       <c r="C84" s="4"/>
     </row>
-    <row r="85" s="2" customFormat="1" spans="1:3">
+    <row r="85" spans="1:3">
       <c r="A85" s="4" t="s">
         <v>87</v>
       </c>
@@ -2165,7 +1545,7 @@
       </c>
       <c r="C85" s="4"/>
     </row>
-    <row r="86" s="2" customFormat="1" spans="1:3">
+    <row r="86" spans="1:3">
       <c r="A86" s="4" t="s">
         <v>88</v>
       </c>
@@ -2174,7 +1554,7 @@
       </c>
       <c r="C86" s="4"/>
     </row>
-    <row r="87" s="2" customFormat="1" spans="1:3">
+    <row r="87" spans="1:3">
       <c r="A87" s="4" t="s">
         <v>89</v>
       </c>
@@ -2183,7 +1563,7 @@
       </c>
       <c r="C87" s="4"/>
     </row>
-    <row r="88" s="2" customFormat="1" spans="1:3">
+    <row r="88" spans="1:3">
       <c r="A88" s="4" t="s">
         <v>90</v>
       </c>
@@ -2192,7 +1572,7 @@
       </c>
       <c r="C88" s="4"/>
     </row>
-    <row r="89" s="2" customFormat="1" spans="1:3">
+    <row r="89" spans="1:3">
       <c r="A89" s="4" t="s">
         <v>91</v>
       </c>
@@ -2201,7 +1581,7 @@
       </c>
       <c r="C89" s="4"/>
     </row>
-    <row r="90" s="2" customFormat="1" spans="1:3">
+    <row r="90" spans="1:3">
       <c r="A90" s="4" t="s">
         <v>92</v>
       </c>
@@ -2210,7 +1590,7 @@
       </c>
       <c r="C90" s="4"/>
     </row>
-    <row r="91" s="2" customFormat="1" spans="1:3">
+    <row r="91" spans="1:3">
       <c r="A91" s="4" t="s">
         <v>93</v>
       </c>
@@ -2219,7 +1599,7 @@
       </c>
       <c r="C91" s="4"/>
     </row>
-    <row r="92" s="2" customFormat="1" spans="1:3">
+    <row r="92" spans="1:3">
       <c r="A92" s="4" t="s">
         <v>94</v>
       </c>
@@ -2228,7 +1608,7 @@
       </c>
       <c r="C92" s="4"/>
     </row>
-    <row r="93" s="2" customFormat="1" spans="1:3">
+    <row r="93" spans="1:3">
       <c r="A93" s="4" t="s">
         <v>95</v>
       </c>
@@ -2237,7 +1617,7 @@
       </c>
       <c r="C93" s="4"/>
     </row>
-    <row r="94" s="2" customFormat="1" spans="1:3">
+    <row r="94" spans="1:3">
       <c r="A94" s="4" t="s">
         <v>96</v>
       </c>
@@ -2246,7 +1626,7 @@
       </c>
       <c r="C94" s="4"/>
     </row>
-    <row r="95" s="2" customFormat="1" spans="1:3">
+    <row r="95" spans="1:3">
       <c r="A95" s="4" t="s">
         <v>97</v>
       </c>
@@ -2255,7 +1635,7 @@
       </c>
       <c r="C95" s="4"/>
     </row>
-    <row r="96" s="2" customFormat="1" spans="1:3">
+    <row r="96" spans="1:3">
       <c r="A96" s="4" t="s">
         <v>98</v>
       </c>
@@ -2264,7 +1644,7 @@
       </c>
       <c r="C96" s="4"/>
     </row>
-    <row r="97" s="2" customFormat="1" spans="1:3">
+    <row r="97" spans="1:3">
       <c r="A97" s="4" t="s">
         <v>99</v>
       </c>
@@ -2273,7 +1653,7 @@
       </c>
       <c r="C97" s="4"/>
     </row>
-    <row r="98" s="2" customFormat="1" spans="1:3">
+    <row r="98" spans="1:3">
       <c r="A98" s="4" t="s">
         <v>100</v>
       </c>
@@ -2282,7 +1662,7 @@
       </c>
       <c r="C98" s="4"/>
     </row>
-    <row r="99" s="2" customFormat="1" spans="1:3">
+    <row r="99" spans="1:3">
       <c r="A99" s="4" t="s">
         <v>101</v>
       </c>
@@ -2291,7 +1671,7 @@
       </c>
       <c r="C99" s="4"/>
     </row>
-    <row r="100" s="2" customFormat="1" spans="1:3">
+    <row r="100" spans="1:3">
       <c r="A100" s="4" t="s">
         <v>102</v>
       </c>
@@ -2300,7 +1680,7 @@
       </c>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" s="2" customFormat="1" spans="1:3">
+    <row r="101" spans="1:3">
       <c r="A101" s="4" t="s">
         <v>103</v>
       </c>
@@ -2309,7 +1689,7 @@
       </c>
       <c r="C101" s="4"/>
     </row>
-    <row r="102" s="2" customFormat="1" spans="1:3">
+    <row r="102" spans="1:3">
       <c r="A102" s="4" t="s">
         <v>104</v>
       </c>
@@ -2318,7 +1698,7 @@
       </c>
       <c r="C102" s="4"/>
     </row>
-    <row r="103" s="2" customFormat="1" spans="1:3">
+    <row r="103" spans="1:3">
       <c r="A103" s="4" t="s">
         <v>105</v>
       </c>
@@ -2327,7 +1707,7 @@
       </c>
       <c r="C103" s="4"/>
     </row>
-    <row r="104" s="2" customFormat="1" spans="1:3">
+    <row r="104" spans="1:3">
       <c r="A104" s="4" t="s">
         <v>106</v>
       </c>
@@ -2336,7 +1716,7 @@
       </c>
       <c r="C104" s="4"/>
     </row>
-    <row r="105" s="2" customFormat="1" spans="1:3">
+    <row r="105" spans="1:3">
       <c r="A105" s="4" t="s">
         <v>107</v>
       </c>
@@ -2345,7 +1725,7 @@
       </c>
       <c r="C105" s="4"/>
     </row>
-    <row r="106" s="2" customFormat="1" spans="1:3">
+    <row r="106" spans="1:3">
       <c r="A106" s="4" t="s">
         <v>108</v>
       </c>
@@ -2354,7 +1734,7 @@
       </c>
       <c r="C106" s="4"/>
     </row>
-    <row r="107" s="2" customFormat="1" spans="1:3">
+    <row r="107" spans="1:3">
       <c r="A107" s="4" t="s">
         <v>109</v>
       </c>
@@ -2363,7 +1743,7 @@
       </c>
       <c r="C107" s="4"/>
     </row>
-    <row r="108" s="2" customFormat="1" spans="1:3">
+    <row r="108" spans="1:3">
       <c r="A108" s="4" t="s">
         <v>110</v>
       </c>
@@ -2372,7 +1752,7 @@
       </c>
       <c r="C108" s="4"/>
     </row>
-    <row r="109" s="2" customFormat="1" spans="1:3">
+    <row r="109" spans="1:3">
       <c r="A109" s="4" t="s">
         <v>111</v>
       </c>
@@ -2381,7 +1761,7 @@
       </c>
       <c r="C109" s="4"/>
     </row>
-    <row r="110" s="2" customFormat="1" spans="1:3">
+    <row r="110" spans="1:3">
       <c r="A110" s="4" t="s">
         <v>112</v>
       </c>
@@ -2390,7 +1770,7 @@
       </c>
       <c r="C110" s="4"/>
     </row>
-    <row r="111" s="2" customFormat="1" spans="1:3">
+    <row r="111" spans="1:3">
       <c r="A111" s="4" t="s">
         <v>113</v>
       </c>
@@ -2399,7 +1779,7 @@
       </c>
       <c r="C111" s="4"/>
     </row>
-    <row r="112" s="2" customFormat="1" spans="1:3">
+    <row r="112" spans="1:3">
       <c r="A112" s="4" t="s">
         <v>114</v>
       </c>
@@ -2408,7 +1788,7 @@
       </c>
       <c r="C112" s="4"/>
     </row>
-    <row r="113" s="2" customFormat="1" spans="1:3">
+    <row r="113" spans="1:3">
       <c r="A113" s="4" t="s">
         <v>115</v>
       </c>
@@ -2417,7 +1797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" s="2" customFormat="1" spans="1:3">
+    <row r="114" spans="1:3">
       <c r="A114" s="4" t="s">
         <v>116</v>
       </c>
@@ -2427,42 +1807,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/words/v1/数词词库.xlsx
+++ b/data/words/v1/数词词库.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/rd/project/zentao/go/zd/data/words/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67165A4F-120E-0942-9F80-82FB7EAC6412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24384D3-0F80-7341-A4AC-27951D1C1F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="数词" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
